--- a/02-CAF Basic - Strategy and Plan/sources/business-outcome-template.xlsx
+++ b/02-CAF Basic - Strategy and Plan/sources/business-outcome-template.xlsx
@@ -1170,4 +1170,10 @@
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7FDC3D9-7020-45EF-AE21-99EC7A27974D}"/>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Privileged" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" removed="0"/>
+</clbl:labelList>
 </file>